--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2013121.449144895</v>
+        <v>-2014981.457073098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410266</v>
+        <v>5362323.598410261</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.3102796803863</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>187.6309395875728</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586171</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H11" t="n">
-        <v>233.844191526861</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.86878149913296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201111</v>
+        <v>68.83384483201112</v>
       </c>
       <c r="T11" t="n">
-        <v>74.25134215088697</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U11" t="n">
         <v>173.7017502545637</v>
@@ -1430,10 +1430,10 @@
         <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>271.8174067343186</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677301</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>126.1448929028979</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02150358154442</v>
+        <v>70.02150358154441</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230661</v>
+        <v>80.2215184723066</v>
       </c>
       <c r="F12" t="n">
-        <v>67.64565041028955</v>
+        <v>67.64565041028953</v>
       </c>
       <c r="G12" t="n">
         <v>135.8698590135443</v>
       </c>
       <c r="H12" t="n">
-        <v>98.00300894892986</v>
+        <v>20.57944696583552</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>144.3106173150801</v>
+        <v>66.88705533198575</v>
       </c>
       <c r="T12" t="n">
-        <v>116.8012902225022</v>
+        <v>116.8012902225021</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8444308869178</v>
+        <v>148.4208689038235</v>
       </c>
       <c r="V12" t="n">
-        <v>155.377025166331</v>
+        <v>186.2369810640078</v>
       </c>
       <c r="W12" t="n">
         <v>174.2714211778253</v>
@@ -1515,7 +1515,7 @@
         <v>128.3494232203831</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.25913379421</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,22 +1528,22 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.8232591155335</v>
+        <v>89.82325911553349</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511803</v>
+        <v>71.19191103511801</v>
       </c>
       <c r="E13" t="n">
-        <v>8.071023509454491</v>
+        <v>69.01040066347483</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983691</v>
+        <v>67.9974860398369</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606986</v>
+        <v>89.33195188606983</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407161</v>
+        <v>73.8191991740716</v>
       </c>
       <c r="I13" t="n">
         <v>40.87309622974148</v>
@@ -1576,10 +1576,10 @@
         <v>44.3188083936116</v>
       </c>
       <c r="S13" t="n">
-        <v>125.0622420268079</v>
+        <v>125.0622420268078</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2432203545649</v>
+        <v>84.3038432005456</v>
       </c>
       <c r="U13" t="n">
         <v>208.8280783467078</v>
@@ -1594,7 +1594,7 @@
         <v>148.2860934059428</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.1610913690005</v>
+        <v>141.1610913690004</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879132</v>
+        <v>287.8493297879133</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586171</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G14" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.71814226479292</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913298</v>
+        <v>17.87942451888249</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201112</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6155215347106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545637</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953747</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y14" t="n">
         <v>308.8143766729593</v>
@@ -1704,7 +1704,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492117</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.408418198843</v>
+        <v>41.46904104482142</v>
       </c>
       <c r="C16" t="n">
-        <v>89.8232591155335</v>
+        <v>89.82325911553356</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511803</v>
+        <v>71.19191103511808</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347484</v>
+        <v>69.0104006634749</v>
       </c>
       <c r="F16" t="n">
-        <v>7.058108885816812</v>
+        <v>67.99748603983697</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606985</v>
+        <v>89.33195188606992</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407161</v>
+        <v>73.81919917407167</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974149</v>
+        <v>40.87309622974156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361161</v>
+        <v>44.31880839361168</v>
       </c>
       <c r="S16" t="n">
         <v>125.0622420268079</v>
@@ -1819,7 +1819,7 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467078</v>
+        <v>208.8280783467079</v>
       </c>
       <c r="V16" t="n">
         <v>174.7140813407337</v>
@@ -1828,7 +1828,7 @@
         <v>209.0994363534967</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2860934059428</v>
+        <v>148.2860934059429</v>
       </c>
       <c r="Y16" t="n">
         <v>141.1610913690005</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.4635783425402</v>
+        <v>230.4635783425403</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0026284500681</v>
+        <v>213.0026284500673</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E17" t="n">
-        <v>229.6601067513214</v>
+        <v>229.6601067513215</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G17" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H17" t="n">
-        <v>158.997490189015</v>
+        <v>158.9974901890151</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.76882019686452</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U17" t="n">
-        <v>98.85504891671769</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V17" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491946</v>
       </c>
       <c r="W17" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X17" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.9676753351132</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8698590135443</v>
+        <v>135.8698590135444</v>
       </c>
       <c r="H18" t="n">
         <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S18" t="n">
         <v>144.3106173150801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.56171686099694</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C19" t="n">
-        <v>14.97655777768747</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.89725965145724</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21554068896182</v>
+        <v>50.21554068896191</v>
       </c>
       <c r="T19" t="n">
-        <v>70.39651901671884</v>
+        <v>70.39651901671893</v>
       </c>
       <c r="U19" t="n">
-        <v>133.9813770088617</v>
+        <v>133.9813770088618</v>
       </c>
       <c r="V19" t="n">
-        <v>99.86738000288764</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>277.26844711355</v>
       </c>
       <c r="X19" t="n">
-        <v>73.43939206809679</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.4635783425402</v>
+        <v>230.4635783425403</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0026284500672</v>
+        <v>213.0026284500673</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E20" t="n">
-        <v>229.6601067513214</v>
+        <v>229.6601067513215</v>
       </c>
       <c r="F20" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G20" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H20" t="n">
-        <v>158.997490189015</v>
+        <v>158.9974901890151</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.76882019686452</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U20" t="n">
-        <v>98.85504891671769</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V20" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491946</v>
       </c>
       <c r="W20" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X20" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9676753351132</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492117</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590198</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.56171686099694</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.48525054822382</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.59351947487652</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896182</v>
+        <v>50.21554068896191</v>
       </c>
       <c r="T22" t="n">
-        <v>70.39651901671884</v>
+        <v>70.80852811995177</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9813770088617</v>
+        <v>133.9813770088618</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W22" t="n">
-        <v>134.2527350156506</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>73.43939206809679</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.31439003115443</v>
+        <v>66.31439003115452</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.4635783425402</v>
+        <v>230.4635783425403</v>
       </c>
       <c r="C23" t="n">
-        <v>213.0026284500672</v>
+        <v>213.0026284500673</v>
       </c>
       <c r="D23" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E23" t="n">
-        <v>229.6601067513214</v>
+        <v>229.6601067513215</v>
       </c>
       <c r="F23" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G23" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H23" t="n">
-        <v>158.997490189015</v>
+        <v>158.9974901890151</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.76882019686451</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U23" t="n">
-        <v>98.85504891671769</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V23" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491946</v>
       </c>
       <c r="W23" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X23" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.9676753351132</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H24" t="n">
-        <v>98.00300894892729</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492205</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.56171686099694</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C25" t="n">
-        <v>14.97655777768747</v>
+        <v>14.97655777768756</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.48525054822382</v>
+        <v>166.7555138691642</v>
       </c>
       <c r="H25" t="n">
-        <v>2.593519474876528</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896182</v>
+        <v>50.21554068896191</v>
       </c>
       <c r="T25" t="n">
-        <v>70.39651901671884</v>
+        <v>70.39651901671893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2516403298021</v>
+        <v>276.997089106761</v>
       </c>
       <c r="V25" t="n">
-        <v>99.86738000288764</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2527350156506</v>
+        <v>134.2527350156507</v>
       </c>
       <c r="X25" t="n">
-        <v>73.43939206809679</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>66.31439003115452</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H26" t="n">
-        <v>231.2880953742982</v>
+        <v>231.2880953742983</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657018</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944834</v>
       </c>
       <c r="T26" t="n">
         <v>131.0594253821477</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492196</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590037</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2731,7 +2731,7 @@
         <v>71.26310302150881</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717868</v>
+        <v>38.3170000771787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104882</v>
       </c>
       <c r="S28" t="n">
         <v>122.506145874245</v>
@@ -2807,10 +2807,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H29" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657016</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944834</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2889,7 +2889,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2965,10 +2965,10 @@
         <v>86.77585573350706</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150891</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104881</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
@@ -3044,10 +3044,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H32" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657016</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944834</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T32" t="n">
         <v>131.0594253821477</v>
@@ -3086,7 +3086,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344778</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W32" t="n">
         <v>269.2613105817559</v>
@@ -3095,7 +3095,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203965</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628016</v>
+        <v>99.85232204628014</v>
       </c>
       <c r="C34" t="n">
-        <v>87.2671629629707</v>
+        <v>87.26716296297067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255522</v>
+        <v>68.6358148825552</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091204</v>
+        <v>66.45430451091201</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727411</v>
+        <v>65.44138988727408</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350706</v>
+        <v>86.77585573350703</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150881</v>
+        <v>71.26310302150878</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104881</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S34" t="n">
         <v>122.506145874245</v>
@@ -3244,16 +3244,16 @@
         <v>206.271982194145</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881709</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009339</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164377</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>278.4414981812532</v>
       </c>
       <c r="C35" t="n">
-        <v>260.9805482887803</v>
+        <v>260.9805482887802</v>
       </c>
       <c r="D35" t="n">
         <v>250.3906981384556</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287813</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355775</v>
@@ -3332,7 +3332,7 @@
         <v>265.4387571962417</v>
       </c>
       <c r="Y35" t="n">
-        <v>281.9455951738263</v>
+        <v>281.9455951738262</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669970997</v>
+        <v>75.53963669970996</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640051</v>
+        <v>62.9544776164005</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598502</v>
       </c>
       <c r="E37" t="n">
-        <v>42.14161916434185</v>
+        <v>42.14161916434183</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070391</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693684</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493861</v>
       </c>
       <c r="I37" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060849</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447862</v>
+        <v>17.45002689447861</v>
       </c>
       <c r="S37" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767484</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
       </c>
       <c r="U37" t="n">
-        <v>181.9592968475748</v>
+        <v>181.9592968475747</v>
       </c>
       <c r="V37" t="n">
-        <v>147.8452998416007</v>
+        <v>147.8452998416006</v>
       </c>
       <c r="W37" t="n">
-        <v>182.2306548543637</v>
+        <v>182.2306548543636</v>
       </c>
       <c r="X37" t="n">
         <v>121.4173119068098</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>278.4414981812532</v>
+        <v>278.4414981812533</v>
       </c>
       <c r="C38" t="n">
         <v>260.9805482887803</v>
       </c>
       <c r="D38" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384557</v>
       </c>
       <c r="E38" t="n">
-        <v>277.6380265900344</v>
+        <v>277.6380265900345</v>
       </c>
       <c r="F38" t="n">
         <v>302.5837022594841</v>
       </c>
       <c r="G38" t="n">
-        <v>308.2561356556772</v>
+        <v>308.2561356556773</v>
       </c>
       <c r="H38" t="n">
-        <v>206.975410027728</v>
+        <v>206.9754100277281</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287819</v>
       </c>
       <c r="T38" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U38" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V38" t="n">
         <v>223.4599149879076</v>
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.53963669970997</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C40" t="n">
-        <v>62.95447761640051</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D40" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E40" t="n">
-        <v>42.14161916434185</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F40" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G40" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I40" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060855</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447862</v>
+        <v>17.45002689447867</v>
       </c>
       <c r="S40" t="n">
-        <v>98.19346052767486</v>
+        <v>98.1934605276749</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
@@ -3724,7 +3724,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X40" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y40" t="n">
         <v>114.2923098698675</v>
@@ -3749,7 +3749,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594841</v>
+        <v>302.5837022594842</v>
       </c>
       <c r="G41" t="n">
         <v>308.2561356556773</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287816</v>
+        <v>41.9650633328782</v>
       </c>
       <c r="T41" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U41" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V41" t="n">
         <v>223.4599149879076</v>
@@ -3803,7 +3803,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962418</v>
       </c>
       <c r="Y41" t="n">
         <v>281.9455951738263</v>
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971003</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640057</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598505</v>
+        <v>44.32312953598509</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434186</v>
+        <v>42.1416191643419</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070398</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693691</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493868</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447868</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767492</v>
       </c>
       <c r="T43" t="n">
         <v>118.3744388554319</v>
@@ -3961,7 +3961,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X43" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y43" t="n">
         <v>114.2923098698675</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T44" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U44" t="n">
         <v>146.8329687554307</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590094</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4147,13 +4147,13 @@
         <v>41.12870454070392</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693686</v>
       </c>
       <c r="H46" t="n">
         <v>46.95041767493862</v>
       </c>
       <c r="I46" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060851</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447862</v>
+        <v>17.45002689447863</v>
       </c>
       <c r="S46" t="n">
         <v>98.19346052767486</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>912.4427969931392</v>
+        <v>591.0500241313921</v>
       </c>
       <c r="C11" t="n">
-        <v>912.4427969931392</v>
+        <v>591.0500241313921</v>
       </c>
       <c r="D11" t="n">
-        <v>912.4427969931392</v>
+        <v>591.0500241313921</v>
       </c>
       <c r="E11" t="n">
-        <v>604.8601625596366</v>
+        <v>401.523822527783</v>
       </c>
       <c r="F11" t="n">
-        <v>272.0798759347708</v>
+        <v>401.523822527783</v>
       </c>
       <c r="G11" t="n">
-        <v>272.0798759347708</v>
+        <v>63.01380519969187</v>
       </c>
       <c r="H11" t="n">
-        <v>35.87362186723429</v>
+        <v>63.01380519969187</v>
       </c>
       <c r="I11" t="n">
         <v>35.87362186723429</v>
       </c>
       <c r="J11" t="n">
-        <v>88.06477096083685</v>
+        <v>88.06477096083677</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0242925384132</v>
+        <v>410.0210959277063</v>
       </c>
       <c r="L11" t="n">
-        <v>413.9117442942789</v>
+        <v>606.9085476835719</v>
       </c>
       <c r="M11" t="n">
-        <v>664.6564079673441</v>
+        <v>857.6532113566369</v>
       </c>
       <c r="N11" t="n">
-        <v>1043.749319252028</v>
+        <v>1301.589281963661</v>
       </c>
       <c r="O11" t="n">
-        <v>1275.373025589587</v>
+        <v>1533.21298830122</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196611</v>
+        <v>1696.397461997532</v>
       </c>
       <c r="Q11" t="n">
-        <v>1793.681093361714</v>
+        <v>1770.769459162635</v>
       </c>
       <c r="R11" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1724.151957167763</v>
+        <v>1724.151957167764</v>
       </c>
       <c r="T11" t="n">
-        <v>1649.150601459796</v>
+        <v>1589.186783900379</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.694288071348</v>
+        <v>1413.730470511931</v>
       </c>
       <c r="V11" t="n">
-        <v>1220.837018892519</v>
+        <v>1160.873201333102</v>
       </c>
       <c r="W11" t="n">
-        <v>1220.837018892519</v>
+        <v>886.3101642277301</v>
       </c>
       <c r="X11" t="n">
-        <v>1220.837018892519</v>
+        <v>591.0500241313921</v>
       </c>
       <c r="Y11" t="n">
-        <v>1220.837018892519</v>
+        <v>591.0500241313921</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>619.6174939172471</v>
+        <v>588.4458212933314</v>
       </c>
       <c r="C12" t="n">
-        <v>492.1984101769462</v>
+        <v>413.9927920122044</v>
       </c>
       <c r="D12" t="n">
-        <v>421.4696186804367</v>
+        <v>343.2640005156949</v>
       </c>
       <c r="E12" t="n">
-        <v>340.4377818397229</v>
+        <v>262.2321636749812</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1088420313496</v>
+        <v>193.9032238666079</v>
       </c>
       <c r="G12" t="n">
-        <v>134.8665601994867</v>
+        <v>56.66094203474491</v>
       </c>
       <c r="H12" t="n">
         <v>35.87362186723429</v>
@@ -5118,52 +5118,52 @@
         <v>35.87362186723429</v>
       </c>
       <c r="J12" t="n">
-        <v>48.14046576522587</v>
+        <v>160.2402824236764</v>
       </c>
       <c r="K12" t="n">
-        <v>409.0818651884204</v>
+        <v>521.1816818468708</v>
       </c>
       <c r="L12" t="n">
-        <v>853.0179357954446</v>
+        <v>700.7843907430309</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.962693937031</v>
+        <v>1144.720461350055</v>
       </c>
       <c r="N12" t="n">
-        <v>1331.375583495983</v>
+        <v>1394.133350909008</v>
       </c>
       <c r="O12" t="n">
-        <v>1537.319855480624</v>
+        <v>1600.077622893648</v>
       </c>
       <c r="P12" t="n">
         <v>1746.032991285784</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R12" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="S12" t="n">
-        <v>1647.912793043452</v>
+        <v>1726.118411208194</v>
       </c>
       <c r="T12" t="n">
-        <v>1529.931691808601</v>
+        <v>1608.137309973343</v>
       </c>
       <c r="U12" t="n">
-        <v>1301.806004044037</v>
+        <v>1458.217240373521</v>
       </c>
       <c r="V12" t="n">
-        <v>1144.859513977036</v>
+        <v>1270.099077682604</v>
       </c>
       <c r="W12" t="n">
-        <v>968.8277754135765</v>
+        <v>1094.067339119144</v>
       </c>
       <c r="X12" t="n">
-        <v>839.1818933727855</v>
+        <v>964.4214570783533</v>
       </c>
       <c r="Y12" t="n">
-        <v>709.6272127725733</v>
+        <v>756.6611583133995</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.4371844832207</v>
+        <v>542.9921109014222</v>
       </c>
       <c r="C13" t="n">
-        <v>390.7066197200556</v>
+        <v>452.261546138257</v>
       </c>
       <c r="D13" t="n">
-        <v>318.7955984724616</v>
+        <v>380.350524890663</v>
       </c>
       <c r="E13" t="n">
-        <v>310.643049473012</v>
+        <v>310.6430494730117</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398434</v>
+        <v>241.9587201398431</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054293</v>
+        <v>151.7244253054291</v>
       </c>
       <c r="H13" t="n">
         <v>77.15957765485194</v>
@@ -5197,28 +5197,28 @@
         <v>35.87362186723429</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071872</v>
+        <v>106.5712959071871</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414891</v>
+        <v>303.2770659414889</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197775</v>
+        <v>589.0837408197773</v>
       </c>
       <c r="M13" t="n">
         <v>896.6492882624208</v>
       </c>
       <c r="N13" t="n">
-        <v>1204.158780512781</v>
+        <v>1204.158780512782</v>
       </c>
       <c r="O13" t="n">
-        <v>1478.028540358913</v>
+        <v>1478.028540358914</v>
       </c>
       <c r="P13" t="n">
         <v>1699.913336220597</v>
       </c>
       <c r="Q13" t="n">
-        <v>1793.681093361714</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
         <v>1748.914620236854</v>
@@ -5227,22 +5227,22 @@
         <v>1622.589123240079</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.878799649609</v>
+        <v>1537.433726067811</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.941346774146</v>
+        <v>1326.496273192348</v>
       </c>
       <c r="V13" t="n">
-        <v>1088.462476733001</v>
+        <v>1150.017403151203</v>
       </c>
       <c r="W13" t="n">
-        <v>877.2509248607826</v>
+        <v>938.8058512789842</v>
       </c>
       <c r="X13" t="n">
-        <v>727.466992127507</v>
+        <v>789.0219185457083</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.8800311487187</v>
+        <v>646.43495756692</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1060.267877374158</v>
+        <v>1517.619456014322</v>
       </c>
       <c r="C14" t="n">
-        <v>769.5109785984876</v>
+        <v>1226.862557238652</v>
       </c>
       <c r="D14" t="n">
-        <v>769.5109785984876</v>
+        <v>946.8024767966435</v>
       </c>
       <c r="E14" t="n">
-        <v>769.5109785984876</v>
+        <v>639.219842363141</v>
       </c>
       <c r="F14" t="n">
-        <v>436.7306919736217</v>
+        <v>306.4395557382756</v>
       </c>
       <c r="G14" t="n">
-        <v>98.22067464553047</v>
+        <v>306.4395557382756</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664872</v>
+        <v>70.23330167073915</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J14" t="n">
         <v>104.3644259977937</v>
       </c>
       <c r="K14" t="n">
-        <v>233.32394757537</v>
+        <v>554.227906020823</v>
       </c>
       <c r="L14" t="n">
-        <v>843.6960017361816</v>
+        <v>1164.599960181635</v>
       </c>
       <c r="M14" t="n">
-        <v>1489.340303425547</v>
+        <v>1503.075705704864</v>
       </c>
       <c r="N14" t="n">
-        <v>1762.491488560466</v>
+        <v>1762.491488560467</v>
       </c>
       <c r="O14" t="n">
-        <v>2371.107374348142</v>
+        <v>2371.107374348143</v>
       </c>
       <c r="P14" t="n">
-        <v>2534.291848044455</v>
+        <v>2534.291848044456</v>
       </c>
       <c r="Q14" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015607</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748223</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.713222359775</v>
+        <v>2433.20753182111</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.855953180946</v>
+        <v>2433.20753182111</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.855953180946</v>
+        <v>2433.20753182111</v>
       </c>
       <c r="X14" t="n">
-        <v>1680.595813084608</v>
+        <v>2137.947391724772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1368.662099273538</v>
+        <v>1826.013677913702</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305898</v>
+        <v>956.6172836305909</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494628</v>
+        <v>782.1642543494639</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882115</v>
+        <v>633.2298446882128</v>
       </c>
       <c r="E15" t="n">
-        <v>473.992389682756</v>
+        <v>473.9923896827572</v>
       </c>
       <c r="F15" t="n">
-        <v>327.457831709641</v>
+        <v>327.4578317096423</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777781</v>
+        <v>190.2155498777793</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552568</v>
+        <v>91.22261154552652</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J15" t="n">
-        <v>64.44012080218272</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5609355829243</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L15" t="n">
-        <v>343.1636444790845</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>988.8079461684501</v>
+        <v>1742.590597648333</v>
       </c>
       <c r="N15" t="n">
-        <v>1634.452247857816</v>
+        <v>2001.139587898361</v>
       </c>
       <c r="O15" t="n">
-        <v>2230.320215926419</v>
+        <v>2207.083859883002</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133627</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745246</v>
       </c>
       <c r="T15" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345654</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V15" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349348</v>
       </c>
       <c r="W15" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621146</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.7368395201772</v>
+        <v>559.2917659383797</v>
       </c>
       <c r="C16" t="n">
-        <v>407.006274757012</v>
+        <v>468.5612011752145</v>
       </c>
       <c r="D16" t="n">
-        <v>335.0952535094181</v>
+        <v>396.6501799276205</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3877780917667</v>
+        <v>326.942704509969</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768002</v>
+        <v>258.2583751768003</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423862</v>
+        <v>168.0240803423863</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180884</v>
+        <v>93.45923269180892</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J16" t="n">
         <v>122.8709509441439</v>
@@ -5440,16 +5440,16 @@
         <v>319.5767209784458</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567343</v>
+        <v>605.3833958567341</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993779</v>
+        <v>912.9489432993774</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549739</v>
+        <v>1220.458435549738</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.328195395871</v>
+        <v>1494.32819539587</v>
       </c>
       <c r="P16" t="n">
         <v>1716.212991257554</v>
@@ -5458,28 +5458,28 @@
         <v>1809.980748398671</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273811</v>
+        <v>1765.21427527381</v>
       </c>
       <c r="S16" t="n">
-        <v>1638.888778277036</v>
+        <v>1638.888778277035</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686566</v>
+        <v>1492.178454686565</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811104</v>
+        <v>1281.241001811102</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769958</v>
+        <v>1104.762131769957</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977396</v>
+        <v>893.5505798977383</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644635</v>
+        <v>743.7666471644625</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856751</v>
+        <v>601.1796861856741</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>1384.453076831345</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.298906679761</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618393</v>
+        <v>964.8415548618397</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524237</v>
+        <v>732.861649052424</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516448</v>
+        <v>475.6840910516451</v>
       </c>
       <c r="G17" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J17" t="n">
         <v>271.7700750181467</v>
       </c>
       <c r="K17" t="n">
-        <v>721.6335550411761</v>
+        <v>400.7295965957229</v>
       </c>
       <c r="L17" t="n">
-        <v>918.5210067970419</v>
+        <v>597.6170483515886</v>
       </c>
       <c r="M17" t="n">
-        <v>1169.265670470107</v>
+        <v>1243.261350040954</v>
       </c>
       <c r="N17" t="n">
-        <v>1428.68145332571</v>
+        <v>1502.677132896557</v>
       </c>
       <c r="O17" t="n">
-        <v>1819.42317830599</v>
+        <v>2052.526653258376</v>
       </c>
       <c r="P17" t="n">
-        <v>2301.18837309207</v>
+        <v>2534.291848044456</v>
       </c>
       <c r="Q17" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R17" t="n">
         <v>2608.663845209559</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.61728363059</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C18" t="n">
-        <v>782.164254349463</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D18" t="n">
-        <v>633.2298446882119</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E18" t="n">
-        <v>473.9923896827563</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F18" t="n">
-        <v>327.4578317096414</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G18" t="n">
         <v>190.2155498777789</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552652</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J18" t="n">
         <v>189.2702457891875</v>
@@ -5598,19 +5598,19 @@
         <v>550.2116452123819</v>
       </c>
       <c r="L18" t="n">
-        <v>917.8274993781198</v>
+        <v>917.8274993781206</v>
       </c>
       <c r="M18" t="n">
         <v>1563.471801067486</v>
       </c>
       <c r="N18" t="n">
-        <v>2209.116102756851</v>
+        <v>2209.116102756852</v>
       </c>
       <c r="O18" t="n">
-        <v>2415.060374741492</v>
+        <v>2415.060374741493</v>
       </c>
       <c r="P18" t="n">
-        <v>2561.015743133627</v>
+        <v>2561.015743133628</v>
       </c>
       <c r="Q18" t="n">
         <v>2608.663845209559</v>
@@ -5625,7 +5625,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U18" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V18" t="n">
         <v>1794.681776349347</v>
@@ -5634,10 +5634,10 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X18" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.4654894772791</v>
+        <v>241.8135210157041</v>
       </c>
       <c r="C19" t="n">
-        <v>217.3376533382009</v>
+        <v>72.87733808779716</v>
       </c>
       <c r="D19" t="n">
-        <v>67.22101392586515</v>
+        <v>72.87733808779716</v>
       </c>
       <c r="E19" t="n">
-        <v>67.22101392586515</v>
+        <v>72.87733808779716</v>
       </c>
       <c r="F19" t="n">
-        <v>67.22101392586515</v>
+        <v>72.87733808779716</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
@@ -5707,16 +5707,16 @@
         <v>945.5727022254277</v>
       </c>
       <c r="V19" t="n">
-        <v>844.6965608083696</v>
+        <v>844.6965608083694</v>
       </c>
       <c r="W19" t="n">
-        <v>555.279390771409</v>
+        <v>564.6274223098341</v>
       </c>
       <c r="X19" t="n">
-        <v>481.0981866622203</v>
+        <v>490.4462182006453</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.3056075186902</v>
+        <v>269.6536390571152</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831344</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.298906679761</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618395</v>
+        <v>964.8415548618401</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524239</v>
+        <v>732.8616490524245</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516451</v>
+        <v>475.6840910516455</v>
       </c>
       <c r="G20" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J20" t="n">
-        <v>104.3644259977937</v>
+        <v>271.7700750181467</v>
       </c>
       <c r="K20" t="n">
-        <v>554.2279060208231</v>
+        <v>721.633555041176</v>
       </c>
       <c r="L20" t="n">
-        <v>1164.599960181635</v>
+        <v>918.5210067970417</v>
       </c>
       <c r="M20" t="n">
-        <v>1415.3446238547</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N20" t="n">
-        <v>1674.760406710303</v>
+        <v>1587.799471968432</v>
       </c>
       <c r="O20" t="n">
-        <v>1906.384113047862</v>
+        <v>1819.423178305991</v>
       </c>
       <c r="P20" t="n">
-        <v>2388.149307833942</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q20" t="n">
-        <v>2585.752211010478</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T20" t="n">
         <v>2549.301400566261</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.447815801899</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.193275247157</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765873</v>
       </c>
       <c r="X20" t="n">
-        <v>1853.57555529362</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.244570106637</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305898</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494628</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882115</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E21" t="n">
-        <v>473.992389682756</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F21" t="n">
-        <v>327.457831709641</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777781</v>
+        <v>190.2155498777789</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552568</v>
+        <v>91.22261154552652</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>530.2482756234691</v>
+        <v>288.391060569929</v>
       </c>
       <c r="L21" t="n">
-        <v>709.8509845196293</v>
+        <v>835.1257113165138</v>
       </c>
       <c r="M21" t="n">
-        <v>1355.495286208995</v>
+        <v>1480.77001300588</v>
       </c>
       <c r="N21" t="n">
         <v>2001.139587898361</v>
       </c>
       <c r="O21" t="n">
-        <v>2207.083859883001</v>
+        <v>2207.083859883002</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S21" t="n">
         <v>2454.146291745245</v>
       </c>
       <c r="T21" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U21" t="n">
         <v>2029.833884581089</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W21" t="n">
         <v>1540.444419621145</v>
@@ -5874,7 +5874,7 @@
         <v>1332.592919415612</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.6541196248182</v>
+        <v>385.857665454761</v>
       </c>
       <c r="C22" t="n">
-        <v>214.7179366969114</v>
+        <v>216.9214825268541</v>
       </c>
       <c r="D22" t="n">
-        <v>214.7179366969114</v>
+        <v>66.80484311451836</v>
       </c>
       <c r="E22" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451836</v>
       </c>
       <c r="F22" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451836</v>
       </c>
       <c r="G22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="H22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1200.118073174585</v>
+        <v>1202.737789815875</v>
       </c>
       <c r="S22" t="n">
-        <v>1149.395304801897</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.287709835514</v>
+        <v>1080.491255665457</v>
       </c>
       <c r="U22" t="n">
-        <v>942.9529855841383</v>
+        <v>945.1565314140814</v>
       </c>
       <c r="V22" t="n">
-        <v>688.2684973782515</v>
+        <v>844.2803899970231</v>
       </c>
       <c r="W22" t="n">
-        <v>552.6596741301195</v>
+        <v>554.8632199600625</v>
       </c>
       <c r="X22" t="n">
-        <v>478.4784700209308</v>
+        <v>480.6820158508737</v>
       </c>
       <c r="Y22" t="n">
-        <v>411.4942376662293</v>
+        <v>413.6977834961721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.453076831343</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.29890667976</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618386</v>
+        <v>964.8415548618398</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524232</v>
+        <v>732.8616490524241</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516444</v>
+        <v>475.6840910516452</v>
       </c>
       <c r="G23" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J23" t="n">
-        <v>271.7700750181467</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K23" t="n">
-        <v>721.633555041176</v>
+        <v>233.3239475753699</v>
       </c>
       <c r="L23" t="n">
-        <v>933.7503209420288</v>
+        <v>638.0032238785479</v>
       </c>
       <c r="M23" t="n">
-        <v>1184.494984615094</v>
+        <v>1283.647525567914</v>
       </c>
       <c r="N23" t="n">
-        <v>1443.910767470697</v>
+        <v>1929.29182725728</v>
       </c>
       <c r="O23" t="n">
-        <v>2052.526653258373</v>
+        <v>2160.915533594838</v>
       </c>
       <c r="P23" t="n">
-        <v>2534.291848044454</v>
+        <v>2324.100007291151</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R23" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S23" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.30140056626</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.447815801898</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.193275247156</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765872</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.575555293619</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106636</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.617283630588</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C24" t="n">
-        <v>782.164254349461</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D24" t="n">
-        <v>633.2298446882097</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827542</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F24" t="n">
-        <v>327.4578317096392</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777763</v>
+        <v>190.215549877779</v>
       </c>
       <c r="H24" t="n">
-        <v>91.22261154552646</v>
+        <v>91.22261154552659</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2702457891874</v>
+        <v>64.4401208021827</v>
       </c>
       <c r="K24" t="n">
-        <v>397.8686960953507</v>
+        <v>425.3815202253771</v>
       </c>
       <c r="L24" t="n">
-        <v>944.6033468419355</v>
+        <v>972.1161709719618</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.548104983522</v>
+        <v>1563.471801067486</v>
       </c>
       <c r="N24" t="n">
-        <v>1819.192406672887</v>
+        <v>2209.116102756852</v>
       </c>
       <c r="O24" t="n">
-        <v>2415.06037474149</v>
+        <v>2415.060374741493</v>
       </c>
       <c r="P24" t="n">
-        <v>2561.015743133626</v>
+        <v>2561.015743133628</v>
       </c>
       <c r="Q24" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063506</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745243</v>
+        <v>2454.146291745245</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.95957234565</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.833884581087</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.681776349344</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.444419621143</v>
+        <v>1540.444419621145</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.59291941561</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.832620650656</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>232.465489477279</v>
+        <v>241.8135210157041</v>
       </c>
       <c r="C25" t="n">
-        <v>217.3376533382008</v>
+        <v>226.6856848766257</v>
       </c>
       <c r="D25" t="n">
-        <v>217.3376533382008</v>
+        <v>226.6856848766257</v>
       </c>
       <c r="E25" t="n">
-        <v>69.42455975580765</v>
+        <v>226.6856848766257</v>
       </c>
       <c r="F25" t="n">
-        <v>69.42455975580765</v>
+        <v>226.6856848766257</v>
       </c>
       <c r="G25" t="n">
-        <v>54.79299354548056</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="H25" t="n">
-        <v>52.17327690419113</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419113</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K25" t="n">
-        <v>172.2297205752296</v>
+        <v>172.2297205752297</v>
       </c>
       <c r="L25" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
         <v>612.3032901696347</v>
@@ -6178,19 +6178,19 @@
         <v>1080.907426476803</v>
       </c>
       <c r="U25" t="n">
-        <v>791.7643554365991</v>
+        <v>801.1123869750245</v>
       </c>
       <c r="V25" t="n">
-        <v>690.8882140195409</v>
+        <v>700.2362455579662</v>
       </c>
       <c r="W25" t="n">
-        <v>555.2793907714089</v>
+        <v>564.6274223098341</v>
       </c>
       <c r="X25" t="n">
-        <v>481.0981866622202</v>
+        <v>336.6378714118167</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.3056075186901</v>
+        <v>269.6536390571152</v>
       </c>
     </row>
     <row r="26">
@@ -6203,55 +6203,55 @@
         <v>1868.376552566036</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.201569095985</v>
+        <v>1580.201569095986</v>
       </c>
       <c r="D26" t="n">
         <v>1302.723403959596</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317119</v>
+        <v>997.7226848317124</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124656</v>
       </c>
       <c r="G26" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899939</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807572</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123716</v>
       </c>
       <c r="J26" t="n">
         <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>421.969924392769</v>
+        <v>742.873882838222</v>
       </c>
       <c r="L26" t="n">
-        <v>1032.341978553581</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M26" t="n">
-        <v>1603.346078546224</v>
+        <v>2049.008998830003</v>
       </c>
       <c r="N26" t="n">
-        <v>2295.735316569691</v>
+        <v>2741.39823685347</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.351202357368</v>
+        <v>2973.021943191029</v>
       </c>
       <c r="P26" t="n">
-        <v>3386.116397143448</v>
+        <v>3454.787137977109</v>
       </c>
       <c r="Q26" t="n">
-        <v>3670.680235061857</v>
+        <v>3647.768600862778</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061858</v>
       </c>
       <c r="S26" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T26" t="n">
         <v>3471.34975621176</v>
@@ -6263,13 +6263,13 @@
         <v>3048.200004255721</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.218882455967</v>
+        <v>2776.218882455968</v>
       </c>
       <c r="X26" t="n">
-        <v>2483.540657665248</v>
+        <v>2483.540657665249</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>977.8576114276365</v>
+        <v>977.8576114276367</v>
       </c>
       <c r="C27" t="n">
-        <v>803.4045821465095</v>
+        <v>803.4045821465097</v>
       </c>
       <c r="D27" t="n">
-        <v>654.4701724852582</v>
+        <v>654.4701724852584</v>
       </c>
       <c r="E27" t="n">
-        <v>495.2327174798028</v>
+        <v>495.2327174798029</v>
       </c>
       <c r="F27" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G27" t="n">
-        <v>211.4558776748248</v>
+        <v>211.4558776748249</v>
       </c>
       <c r="H27" t="n">
-        <v>112.4629393425724</v>
+        <v>112.4629393425725</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123716</v>
       </c>
       <c r="J27" t="n">
-        <v>210.5105735862335</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K27" t="n">
-        <v>309.6313883669751</v>
+        <v>309.631388366975</v>
       </c>
       <c r="L27" t="n">
-        <v>572.2479952157404</v>
+        <v>856.3660391135597</v>
       </c>
       <c r="M27" t="n">
-        <v>801.192753357327</v>
+        <v>1546.358810367646</v>
       </c>
       <c r="N27" t="n">
-        <v>1525.154593516397</v>
+        <v>1840.432734469936</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.022561585</v>
+        <v>2436.300702538539</v>
       </c>
       <c r="P27" t="n">
         <v>2582.256070930674</v>
@@ -6330,7 +6330,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S27" t="n">
-        <v>2475.386619542291</v>
+        <v>2475.386619542292</v>
       </c>
       <c r="T27" t="n">
         <v>2279.199900142699</v>
@@ -6345,10 +6345,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X27" t="n">
-        <v>1353.833247212658</v>
+        <v>1353.833247212659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.072948447704</v>
+        <v>1146.072948447705</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960919</v>
+        <v>562.4586865960923</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385457</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965707</v>
+        <v>404.9809311965712</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845384</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569887</v>
+        <v>271.7529570569892</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281938</v>
+        <v>184.1005775281942</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832354</v>
+        <v>112.1176451832358</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123716</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322273</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268918</v>
+        <v>634.215329226892</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605723</v>
+        <v>944.3114118605727</v>
       </c>
       <c r="N28" t="n">
         <v>1254.35143930197</v>
@@ -6421,13 +6421,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567969</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291403</v>
+        <v>803.3246636291404</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559708</v>
+        <v>663.3196179559712</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>667.5243135124651</v>
       </c>
       <c r="G29" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899935</v>
       </c>
       <c r="H29" t="n">
-        <v>97.9718727280757</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I29" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>145.3398067777878</v>
+        <v>125.6047537948397</v>
       </c>
       <c r="K29" t="n">
-        <v>274.2993283553641</v>
+        <v>575.4682338178691</v>
       </c>
       <c r="L29" t="n">
-        <v>884.6713825161758</v>
+        <v>1185.840287978681</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.434444347145</v>
+        <v>1881.60334980965</v>
       </c>
       <c r="N29" t="n">
         <v>2272.823682370612</v>
       </c>
       <c r="O29" t="n">
-        <v>2881.439568158289</v>
+        <v>2881.439568158288</v>
       </c>
       <c r="P29" t="n">
         <v>3363.204762944369</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C30" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D30" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E30" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F30" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G30" t="n">
-        <v>211.4558776748249</v>
+        <v>211.4558776748248</v>
       </c>
       <c r="H30" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I30" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J30" t="n">
-        <v>85.6804485992287</v>
+        <v>210.5105735862335</v>
       </c>
       <c r="K30" t="n">
-        <v>446.6218480224231</v>
+        <v>309.6313883669751</v>
       </c>
       <c r="L30" t="n">
-        <v>993.3564987690079</v>
+        <v>856.3660391135599</v>
       </c>
       <c r="M30" t="n">
-        <v>1457.688885182918</v>
+        <v>1506.394590394827</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.10177474187</v>
+        <v>2230.356430553897</v>
       </c>
       <c r="O30" t="n">
-        <v>1913.046046726511</v>
+        <v>2436.300702538538</v>
       </c>
       <c r="P30" t="n">
-        <v>2374.279556072184</v>
+        <v>2582.256070930674</v>
       </c>
       <c r="Q30" t="n">
         <v>2629.904173006605</v>
@@ -6567,7 +6567,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S30" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T30" t="n">
         <v>2279.199900142699</v>
@@ -6582,10 +6582,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X30" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960924</v>
+        <v>562.4586865960922</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385462</v>
+        <v>474.310037138546</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965713</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845389</v>
+        <v>337.8553710845387</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569893</v>
+        <v>271.752957056989</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281943</v>
+        <v>184.100577528194</v>
       </c>
       <c r="H31" t="n">
         <v>112.1176451832358</v>
       </c>
       <c r="I31" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
         <v>146.6418139322272</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268919</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605725</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
@@ -6658,13 +6658,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567971</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291404</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559714</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>997.7226848317116</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124648</v>
+        <v>667.5243135124649</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899926</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807568</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123712</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J32" t="n">
-        <v>145.3398067777864</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>274.2993283553627</v>
+        <v>742.873882838222</v>
       </c>
       <c r="L32" t="n">
-        <v>884.6713825161744</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M32" t="n">
-        <v>1580.434444347144</v>
+        <v>1603.990600672098</v>
       </c>
       <c r="N32" t="n">
-        <v>2272.823682370611</v>
+        <v>2296.379838695566</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158287</v>
+        <v>2904.995724483242</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944368</v>
+        <v>3386.760919269323</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862776</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S32" t="n">
-        <v>3603.733014173524</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T32" t="n">
         <v>3471.34975621176</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276365</v>
+        <v>977.8576114276367</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465095</v>
+        <v>803.4045821465097</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852582</v>
+        <v>654.4701724852584</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798028</v>
+        <v>495.2327174798029</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G33" t="n">
-        <v>211.4558776748248</v>
+        <v>211.4558776748249</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425724</v>
+        <v>112.4629393425725</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123712</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J33" t="n">
-        <v>210.5105735862334</v>
+        <v>85.68044859922867</v>
       </c>
       <c r="K33" t="n">
-        <v>309.631388366975</v>
+        <v>446.621848022423</v>
       </c>
       <c r="L33" t="n">
-        <v>856.3660391135597</v>
+        <v>626.2245569185832</v>
       </c>
       <c r="M33" t="n">
-        <v>1085.310797255146</v>
+        <v>1316.21732817267</v>
       </c>
       <c r="N33" t="n">
-        <v>1334.723686814099</v>
+        <v>1565.630217731622</v>
       </c>
       <c r="O33" t="n">
-        <v>1913.046046726511</v>
+        <v>2121.022561585001</v>
       </c>
       <c r="P33" t="n">
-        <v>2374.279556072184</v>
+        <v>2582.256070930674</v>
       </c>
       <c r="Q33" t="n">
         <v>2629.904173006605</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212658</v>
+        <v>1353.833247212659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447704</v>
+        <v>1146.072948447705</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385461</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965711</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845386</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569891</v>
+        <v>271.752957056989</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281942</v>
+        <v>184.100577528194</v>
       </c>
       <c r="H34" t="n">
         <v>112.1176451832358</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123712</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J34" t="n">
-        <v>146.6418139322271</v>
+        <v>146.6418139322273</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2153292268918</v>
+        <v>634.215329226892</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605727</v>
+        <v>944.3114118605725</v>
       </c>
       <c r="N34" t="n">
         <v>1254.35143930197</v>
@@ -6886,7 +6886,7 @@
         <v>1685.537218213617</v>
       </c>
       <c r="T34" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U34" t="n">
         <v>1333.053272358923</v>
@@ -6895,13 +6895,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567972</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291406</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559712</v>
+        <v>663.319617955971</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>274.9618382852429</v>
       </c>
       <c r="H35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="I35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="J35" t="n">
         <v>285.4925656641196</v>
@@ -6944,13 +6944,13 @@
         <v>1345.72809984796</v>
       </c>
       <c r="M35" t="n">
-        <v>1596.472763521026</v>
+        <v>2037.419855610555</v>
       </c>
       <c r="N35" t="n">
-        <v>2238.424180105808</v>
+        <v>2296.835638466158</v>
       </c>
       <c r="O35" t="n">
-        <v>2847.040065893485</v>
+        <v>2528.459344803717</v>
       </c>
       <c r="P35" t="n">
         <v>3010.224539589797</v>
@@ -6962,10 +6962,10 @@
         <v>3294.788377508205</v>
       </c>
       <c r="S35" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646711</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711785</v>
       </c>
       <c r="U35" t="n">
         <v>2996.258304655795</v>
@@ -7002,37 +7002,37 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F36" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G36" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H36" t="n">
         <v>104.9451021914994</v>
       </c>
       <c r="I36" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="J36" t="n">
-        <v>78.16261144815566</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K36" t="n">
-        <v>177.2834262288973</v>
+        <v>302.1135512159019</v>
       </c>
       <c r="L36" t="n">
-        <v>356.8861351250574</v>
+        <v>481.716260112062</v>
       </c>
       <c r="M36" t="n">
-        <v>1046.878906379144</v>
+        <v>1171.709031366148</v>
       </c>
       <c r="N36" t="n">
-        <v>1770.840746538214</v>
+        <v>1895.670871525218</v>
       </c>
       <c r="O36" t="n">
-        <v>2220.806350528976</v>
+        <v>2428.782865387466</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.761718921111</v>
+        <v>2574.738233779602</v>
       </c>
       <c r="Q36" t="n">
         <v>2622.386335855532</v>
@@ -7078,7 +7078,7 @@
         <v>274.6717539113052</v>
       </c>
       <c r="E37" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261114</v>
       </c>
       <c r="F37" t="n">
         <v>190.5603158254004</v>
@@ -7087,28 +7087,28 @@
         <v>127.466204323444</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532419</v>
       </c>
       <c r="I37" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="J37" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="K37" t="n">
-        <v>283.2499789452971</v>
+        <v>289.2016312686076</v>
       </c>
       <c r="L37" t="n">
-        <v>526.4150913704997</v>
+        <v>601.6083998310377</v>
       </c>
       <c r="M37" t="n">
-        <v>757.3313124498798</v>
+        <v>832.5246209104178</v>
       </c>
       <c r="N37" t="n">
-        <v>988.1914783369771</v>
+        <v>1091.440898384382</v>
       </c>
       <c r="O37" t="n">
-        <v>1185.411911819845</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P37" t="n">
         <v>1433.896801365671</v>
@@ -7157,46 +7157,46 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E38" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732846</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G38" t="n">
-        <v>274.9618382852432</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H38" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I38" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J38" t="n">
-        <v>285.4925656641196</v>
+        <v>118.0869166437666</v>
       </c>
       <c r="K38" t="n">
-        <v>735.3560456871489</v>
+        <v>567.9503966667959</v>
       </c>
       <c r="L38" t="n">
-        <v>1345.72809984796</v>
+        <v>1178.322450827608</v>
       </c>
       <c r="M38" t="n">
-        <v>1596.472763521026</v>
+        <v>1437.646061745879</v>
       </c>
       <c r="N38" t="n">
-        <v>2288.862001544493</v>
+        <v>2130.035299769346</v>
       </c>
       <c r="O38" t="n">
-        <v>2897.477887332169</v>
+        <v>2738.651185557022</v>
       </c>
       <c r="P38" t="n">
-        <v>3220.416380343102</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q38" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R38" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S38" t="n">
         <v>3252.399424646712</v>
@@ -7245,31 +7245,31 @@
         <v>203.9380405237519</v>
       </c>
       <c r="H39" t="n">
-        <v>104.9451021914994</v>
+        <v>104.9451021914995</v>
       </c>
       <c r="I39" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
         <v>202.9927364351604</v>
       </c>
       <c r="K39" t="n">
-        <v>563.9341358583548</v>
+        <v>563.9341358583547</v>
       </c>
       <c r="L39" t="n">
-        <v>1110.66878660494</v>
+        <v>808.8839819896691</v>
       </c>
       <c r="M39" t="n">
-        <v>1800.661557859026</v>
+        <v>1498.876753243756</v>
       </c>
       <c r="N39" t="n">
-        <v>2050.074447417978</v>
+        <v>2222.838593402826</v>
       </c>
       <c r="O39" t="n">
         <v>2428.782865387466</v>
       </c>
       <c r="P39" t="n">
-        <v>2574.738233779601</v>
+        <v>2574.738233779602</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.0329732571492</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C40" t="n">
-        <v>319.4425918264416</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D40" t="n">
-        <v>274.6717539113052</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E40" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F40" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G40" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532428</v>
       </c>
       <c r="I40" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>163.1935352742586</v>
+        <v>93.95187913703188</v>
       </c>
       <c r="K40" t="n">
-        <v>283.2499789452971</v>
+        <v>214.0083228080704</v>
       </c>
       <c r="L40" t="n">
-        <v>492.4073274603221</v>
+        <v>423.1656713230954</v>
       </c>
       <c r="M40" t="n">
-        <v>757.3313124498798</v>
+        <v>654.0818924024754</v>
       </c>
       <c r="N40" t="n">
-        <v>988.1914783369771</v>
+        <v>988.1914783369778</v>
       </c>
       <c r="O40" t="n">
-        <v>1185.411911819845</v>
+        <v>1185.411911819846</v>
       </c>
       <c r="P40" t="n">
-        <v>1330.647381318266</v>
+        <v>1330.647381318267</v>
       </c>
       <c r="Q40" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R40" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S40" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T40" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U40" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V40" t="n">
-        <v>881.4975321770996</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W40" t="n">
-        <v>697.4261636373384</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X40" t="n">
-        <v>574.7824142365204</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y40" t="n">
-        <v>459.3356365901896</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C41" t="n">
         <v>1425.334123783881</v>
@@ -7394,19 +7394,19 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E41" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732851</v>
       </c>
       <c r="F41" t="n">
         <v>586.3316722808768</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852432</v>
+        <v>274.961838285243</v>
       </c>
       <c r="H41" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I41" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J41" t="n">
         <v>285.4925656641196</v>
@@ -7418,31 +7418,31 @@
         <v>1345.72809984796</v>
       </c>
       <c r="M41" t="n">
-        <v>1596.472763521026</v>
+        <v>2041.49116167893</v>
       </c>
       <c r="N41" t="n">
-        <v>2288.862001544493</v>
+        <v>2300.906944534533</v>
       </c>
       <c r="O41" t="n">
-        <v>2528.459344803717</v>
+        <v>2738.651185557022</v>
       </c>
       <c r="P41" t="n">
-        <v>3010.224539589797</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q41" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R41" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T41" t="n">
         <v>3144.574434711786</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V41" t="n">
         <v>2770.541218809424</v>
@@ -7451,7 +7451,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X41" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y41" t="n">
         <v>1970.204877794016</v>
@@ -7482,31 +7482,31 @@
         <v>203.9380405237519</v>
       </c>
       <c r="H42" t="n">
-        <v>104.9451021914994</v>
+        <v>104.9451021914995</v>
       </c>
       <c r="I42" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J42" t="n">
-        <v>78.16261144815566</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K42" t="n">
-        <v>177.2834262288973</v>
+        <v>302.113551215902</v>
       </c>
       <c r="L42" t="n">
-        <v>356.8861351250574</v>
+        <v>848.8482019624867</v>
       </c>
       <c r="M42" t="n">
-        <v>585.830893266644</v>
+        <v>1538.840973216573</v>
       </c>
       <c r="N42" t="n">
-        <v>1309.792733425714</v>
+        <v>2222.838593402826</v>
       </c>
       <c r="O42" t="n">
-        <v>1905.528209575438</v>
+        <v>2428.782865387466</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.761718921111</v>
+        <v>2574.738233779602</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571494</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264418</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113054</v>
+        <v>274.6717539113056</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261116</v>
+        <v>232.1044618261118</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254007</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4662043234441</v>
+        <v>127.4662043234442</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532422</v>
+        <v>80.04154000532429</v>
       </c>
       <c r="I43" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J43" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K43" t="n">
         <v>289.2016312686076</v>
       </c>
       <c r="L43" t="n">
-        <v>526.4150913705001</v>
+        <v>498.3589797836325</v>
       </c>
       <c r="M43" t="n">
-        <v>757.3313124498802</v>
+        <v>729.2752008630126</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369775</v>
+        <v>1063.384786797515</v>
       </c>
       <c r="O43" t="n">
-        <v>1288.661331867251</v>
+        <v>1260.605220280383</v>
       </c>
       <c r="P43" t="n">
-        <v>1433.896801365671</v>
+        <v>1405.840689778804</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R43" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S43" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U43" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321771</v>
+        <v>881.4975321771003</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373386</v>
+        <v>697.426163637339</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365206</v>
+        <v>574.7824142365209</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901898</v>
+        <v>459.3356365901901</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C44" t="n">
         <v>1425.334123783881</v>
@@ -7631,55 +7631,55 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E44" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732854</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808772</v>
       </c>
       <c r="G44" t="n">
         <v>274.9618382852429</v>
       </c>
       <c r="H44" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I44" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J44" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641196</v>
       </c>
       <c r="K44" t="n">
-        <v>247.0464382213429</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L44" t="n">
-        <v>857.4184923821546</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M44" t="n">
-        <v>1553.181554213124</v>
+        <v>1814.638241195997</v>
       </c>
       <c r="N44" t="n">
-        <v>2245.570792236591</v>
+        <v>2507.027479219465</v>
       </c>
       <c r="O44" t="n">
-        <v>2505.547710604637</v>
+        <v>2738.651185557023</v>
       </c>
       <c r="P44" t="n">
-        <v>2987.312905390717</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q44" t="n">
-        <v>3271.876743309126</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R44" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S44" t="n">
         <v>3252.399424646713</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711787</v>
       </c>
       <c r="U44" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V44" t="n">
         <v>2770.541218809424</v>
@@ -7688,7 +7688,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X44" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y44" t="n">
         <v>1970.204877794016</v>
@@ -7719,31 +7719,31 @@
         <v>203.9380405237519</v>
       </c>
       <c r="H45" t="n">
-        <v>104.9451021914994</v>
+        <v>104.9451021914995</v>
       </c>
       <c r="I45" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J45" t="n">
         <v>202.9927364351604</v>
       </c>
       <c r="K45" t="n">
-        <v>563.9341358583548</v>
+        <v>302.1135512159019</v>
       </c>
       <c r="L45" t="n">
-        <v>808.8839819896687</v>
+        <v>848.8482019624865</v>
       </c>
       <c r="M45" t="n">
-        <v>1498.876753243755</v>
+        <v>1538.840973216573</v>
       </c>
       <c r="N45" t="n">
-        <v>2222.838593402825</v>
+        <v>1788.253862775525</v>
       </c>
       <c r="O45" t="n">
-        <v>2428.782865387466</v>
+        <v>2384.121830844128</v>
       </c>
       <c r="P45" t="n">
-        <v>2574.738233779601</v>
+        <v>2574.738233779602</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571492</v>
+        <v>383.0329732571493</v>
       </c>
       <c r="C46" t="n">
-        <v>319.4425918264416</v>
+        <v>319.4425918264417</v>
       </c>
       <c r="D46" t="n">
-        <v>274.6717539113052</v>
+        <v>274.6717539113053</v>
       </c>
       <c r="E46" t="n">
         <v>232.1044618261115</v>
       </c>
       <c r="F46" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254005</v>
       </c>
       <c r="G46" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I46" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J46" t="n">
-        <v>65.89576755016411</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K46" t="n">
-        <v>185.9522112212026</v>
+        <v>317.2577428554753</v>
       </c>
       <c r="L46" t="n">
-        <v>498.3589797836327</v>
+        <v>526.4150913705002</v>
       </c>
       <c r="M46" t="n">
-        <v>757.3313124498796</v>
+        <v>757.3313124498802</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.440898384382</v>
+        <v>988.1914783369775</v>
       </c>
       <c r="O46" t="n">
-        <v>1288.661331867251</v>
+        <v>1185.411911819846</v>
       </c>
       <c r="P46" t="n">
-        <v>1433.896801365671</v>
+        <v>1330.647381318266</v>
       </c>
       <c r="Q46" t="n">
         <v>1451.015232143525</v>
       </c>
       <c r="R46" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S46" t="n">
         <v>1334.203628686804</v>
@@ -7837,19 +7837,19 @@
         <v>1214.633488428792</v>
       </c>
       <c r="U46" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321770996</v>
+        <v>881.4975321770999</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373384</v>
+        <v>697.4261636373385</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365204</v>
+        <v>574.7824142365205</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.3356365901896</v>
+        <v>459.3356365901897</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>194.9462660497912</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>120.8859883122032</v>
+        <v>186.3841290418396</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>283.5874716269815</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542711</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>113.232138038839</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>267.0033956675395</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>217.1629418842807</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>63.39168425557955</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>398.8885232487884</v>
+        <v>88.61725439410557</v>
       </c>
       <c r="N14" t="n">
-        <v>13.87414371648055</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>420.9086298462415</v>
+        <v>420.9086298462418</v>
       </c>
       <c r="N15" t="n">
-        <v>400.2337496266802</v>
+        <v>9.228384536441212</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>186.606221025326</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>398.8885232487887</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>160.7252713562843</v>
+        <v>321.440216186121</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>189.9122679490685</v>
+        <v>189.9122679490693</v>
       </c>
       <c r="M18" t="n">
-        <v>420.9086298462415</v>
+        <v>420.9086298462418</v>
       </c>
       <c r="N18" t="n">
-        <v>400.2337496266803</v>
+        <v>400.2337496266804</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>160.7252713562853</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.4756626378118</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>244.300217225798</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>420.9086298462415</v>
+        <v>420.9086298462418</v>
       </c>
       <c r="N21" t="n">
-        <v>400.2337496266802</v>
+        <v>273.6936215490198</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15.38314560099701</v>
+        <v>209.8907318659722</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>398.8885232487887</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>390.1298170038007</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5834702276987</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>366.0715878322608</v>
       </c>
       <c r="N24" t="n">
-        <v>400.2337496266798</v>
+        <v>400.2337496266804</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>323.494380120786</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>119.8075411318853</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542711</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.85242217434859</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>45.11215610438163</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19.93439695247287</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>133.1359087932915</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>237.7652810831547</v>
+        <v>425.337164787556</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.93439695247152</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>188.5208933619717</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>376.1394827553245</v>
+        <v>352.9778503724634</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>445.4011031207372</v>
       </c>
       <c r="N35" t="n">
-        <v>386.3996300294742</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>246.4861939455767</v>
+        <v>330.4724463410172</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>8.665603277986094</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>161.3676962773946</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>66.00720932843873</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>174.509238368532</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.054178708752659</v>
+        <v>208.2025602878096</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>438.9744753811116</v>
       </c>
       <c r="O42" t="n">
-        <v>393.7284890556392</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>220.3691693686583</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>28.63960811160305</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542719</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>66.00720932843808</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>45.11215610438251</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>305.3102796803862</v>
       </c>
       <c r="C11" t="n">
         <v>287.8493297879132</v>
@@ -23264,19 +23264,19 @@
         <v>277.2594796375886</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>116.8758685015946</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.4524837586171</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>233.844191526861</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913295</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>59.36417938382355</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343187</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>308.8143766729593</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.93937715402035</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>60.93937715401927</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2594796375886</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H14" t="n">
-        <v>215.1260492620681</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.989356980250545</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.8338448320112</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>133.6155215347106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343187</v>
+        <v>271.8174067343188</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>60.93937715402161</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.9393771540201</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.345440513412214e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1075959.970194806</v>
+        <v>1075959.970194807</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1347009.857903737</v>
+        <v>1347009.857903736</v>
       </c>
     </row>
     <row r="8">
@@ -26314,10 +26314,10 @@
         <v>163855.2677434077</v>
       </c>
       <c r="C2" t="n">
-        <v>163855.2677434076</v>
+        <v>163855.2677434077</v>
       </c>
       <c r="D2" t="n">
-        <v>163855.2677434076</v>
+        <v>163855.2677434077</v>
       </c>
       <c r="E2" t="n">
         <v>134314.1012902279</v>
@@ -26329,16 +26329,16 @@
         <v>164208.3539728568</v>
       </c>
       <c r="H2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="J2" t="n">
         <v>164208.3539728569</v>
       </c>
       <c r="K2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
@@ -26350,7 +26350,7 @@
         <v>164208.353972857</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728571</v>
+        <v>164208.353972857</v>
       </c>
       <c r="P2" t="n">
         <v>164208.353972857</v>
@@ -26378,7 +26378,7 @@
         <v>58378.43698898882</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027682</v>
+        <v>59877.3610702768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487769</v>
+        <v>73573.91951487768</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>59877.36107027682</v>
       </c>
       <c r="M3" t="n">
-        <v>107779.8354573344</v>
+        <v>107779.8354573342</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.8201154592</v>
+        <v>49902.82011545927</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248872</v>
+        <v>4106.365438248951</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,16 +26436,16 @@
         <v>202349.5883717045</v>
       </c>
       <c r="I4" t="n">
-        <v>202349.5883717045</v>
+        <v>202349.5883717046</v>
       </c>
       <c r="J4" t="n">
+        <v>189330.9659432835</v>
+      </c>
+      <c r="K4" t="n">
         <v>189330.9659432834</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>189330.9659432835</v>
-      </c>
-      <c r="L4" t="n">
-        <v>189330.9659432834</v>
       </c>
       <c r="M4" t="n">
         <v>193885.5459623941</v>
@@ -26457,7 +26457,7 @@
         <v>193885.5459623941</v>
       </c>
       <c r="P4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.5459623942</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>48708.52866658148</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.2664946687</v>
+        <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
         <v>67388.55382944009</v>
       </c>
       <c r="H5" t="n">
-        <v>67388.55382944008</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="I5" t="n">
-        <v>67388.55382944006</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787345</v>
       </c>
       <c r="K5" t="n">
         <v>77453.80406787344</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787343</v>
+        <v>77453.80406787344</v>
       </c>
       <c r="M5" t="n">
-        <v>73784.19097745875</v>
+        <v>73784.19097745874</v>
       </c>
       <c r="N5" t="n">
         <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="P5" t="n">
         <v>73784.19097745875</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-300670.8416992681</v>
+        <v>-300675.2552771363</v>
       </c>
       <c r="C6" t="n">
-        <v>-300670.8416992682</v>
+        <v>-300675.2552771363</v>
       </c>
       <c r="D6" t="n">
-        <v>-300670.8416992682</v>
+        <v>-300675.2552771363</v>
       </c>
       <c r="E6" t="n">
-        <v>-793418.140763555</v>
+        <v>-793791.8189220879</v>
       </c>
       <c r="F6" t="n">
-        <v>-125722.0674291782</v>
+        <v>-125938.3970308084</v>
       </c>
       <c r="G6" t="n">
         <v>-165407.1492985646</v>
@@ -26540,28 +26540,28 @@
         <v>-105529.7882282878</v>
       </c>
       <c r="I6" t="n">
-        <v>-105529.7882282877</v>
+        <v>-105529.7882282879</v>
       </c>
       <c r="J6" t="n">
         <v>-176150.3355531777</v>
       </c>
       <c r="K6" t="n">
-        <v>-102576.4160383001</v>
+        <v>-102576.4160382999</v>
       </c>
       <c r="L6" t="n">
-        <v>-162453.7771085768</v>
+        <v>-162453.7771085769</v>
       </c>
       <c r="M6" t="n">
-        <v>-211241.2184243302</v>
+        <v>-211241.2184243301</v>
       </c>
       <c r="N6" t="n">
         <v>-153364.2030824551</v>
       </c>
       <c r="O6" t="n">
-        <v>-107567.7484052447</v>
+        <v>-107567.7484052448</v>
       </c>
       <c r="P6" t="n">
-        <v>-103461.3829669958</v>
+        <v>-103461.3829669959</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G2" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H2" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I2" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="J2" t="n">
         <v>79.97965813565713</v>
@@ -26713,7 +26713,7 @@
         <v>79.97965813565713</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="F3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="G3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="H3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="I3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="J3" t="n">
+        <v>685.1217713360851</v>
+      </c>
+      <c r="K3" t="n">
         <v>685.1217713360853</v>
       </c>
-      <c r="F3" t="n">
-        <v>685.1217713360852</v>
-      </c>
-      <c r="G3" t="n">
-        <v>685.1217713360852</v>
-      </c>
-      <c r="H3" t="n">
-        <v>685.1217713360852</v>
-      </c>
-      <c r="I3" t="n">
-        <v>685.1217713360852</v>
-      </c>
-      <c r="J3" t="n">
-        <v>685.1217713360853</v>
-      </c>
-      <c r="K3" t="n">
-        <v>685.1217713360852</v>
-      </c>
       <c r="L3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.121771336085</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404286</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="I4" t="n">
-        <v>652.1659613023892</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
+        <v>917.6700587654644</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.6700587654642</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>917.6700587654643</v>
       </c>
-      <c r="L4" t="n">
-        <v>917.670058765464</v>
-      </c>
       <c r="M4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770513</v>
       </c>
       <c r="N4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="O4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="P4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770515</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784603</v>
+        <v>74.846701337846</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811204</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>74.84670133784603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657019</v>
+        <v>24.31268534657018</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.13295679781119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360853</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404286</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.7456879619611</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.504097463075</v>
+        <v>265.5040974630747</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.447308952016</v>
+        <v>354.4473089520156</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.7456879619614</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784603</v>
+        <v>74.846701337846</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811204</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>448.4202733404286</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.7456879619611</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309433</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>46.56360608541786</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I12" t="n">
-        <v>38.65884129492196</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590037</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309433</v>
+        <v>46.56360608541749</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.42356198309433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309433</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="F17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="G17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I17" t="n">
         <v>104.2923434822273</v>
@@ -28615,22 +28615,22 @@
         <v>146.2574068151055</v>
       </c>
       <c r="T17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C19" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>151.858254217707</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H19" t="n">
         <v>151.2427611571659</v>
@@ -28743,7 +28743,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545992</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,22 +28770,22 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="T19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>9.254551223041005</v>
       </c>
       <c r="X19" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="E20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="F20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I20" t="n">
         <v>104.2923434822273</v>
@@ -28852,22 +28852,22 @@
         <v>146.2574068151055</v>
       </c>
       <c r="T20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
@@ -28980,7 +28980,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545992</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.1488509018294</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2702633209404</v>
+        <v>151.8582542177074</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="E23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="F23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="G23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I23" t="n">
         <v>104.2923434822273</v>
@@ -29089,22 +29089,22 @@
         <v>146.2574068151055</v>
       </c>
       <c r="T23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.572164703451563e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.6492416822894</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I25" t="n">
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023545992</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="T25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>9.254551223041119</v>
       </c>
       <c r="V25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
+        <v>6.011770023546006</v>
+      </c>
+      <c r="K37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>34.35127667694701</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>28.339506653401</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,19 +30402,19 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
+        <v>34.35127667694778</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>34.35127667694704</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30639,28 +30639,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J43" t="n">
-        <v>6.011770023545992</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K43" t="n">
         <v>104.2923434822273</v>
       </c>
       <c r="L43" t="n">
-        <v>28.33950665340151</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.33950665340201</v>
       </c>
       <c r="R43" t="n">
         <v>104.2923434822273</v>
@@ -30876,28 +30876,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>6.011770023545992</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>34.35127667694769</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="M46" t="n">
-        <v>28.33950665340089</v>
-      </c>
-      <c r="N46" t="n">
-        <v>104.2923434822273</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.754258377230492</v>
+        <v>2.754258377230491</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581178</v>
+        <v>28.20704860581177</v>
       </c>
       <c r="I11" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J11" t="n">
-        <v>233.7642369444667</v>
+        <v>233.7642369444666</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648012</v>
+        <v>434.6426288648011</v>
       </c>
       <c r="M11" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951801</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0615511565944</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q11" t="n">
         <v>297.4289193341494</v>
@@ -31786,13 +31786,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.76266277113989</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T11" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H12" t="n">
-        <v>14.23243528756661</v>
+        <v>14.2324352875666</v>
       </c>
       <c r="I12" t="n">
-        <v>50.73779155649312</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J12" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9634741064213</v>
+        <v>237.9634741064212</v>
       </c>
       <c r="L12" t="n">
-        <v>319.9712574527633</v>
+        <v>319.9712574527632</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590427</v>
+        <v>383.2739237590426</v>
       </c>
       <c r="O12" t="n">
-        <v>350.6207616006474</v>
+        <v>350.6207616006473</v>
       </c>
       <c r="P12" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.1111701223154</v>
+        <v>188.1111701223153</v>
       </c>
       <c r="R12" t="n">
-        <v>91.4960735380531</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S12" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225115</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699325</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H13" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442247</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J13" t="n">
-        <v>87.3474100931268</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L13" t="n">
-        <v>183.6800237447597</v>
+        <v>183.6800237447596</v>
       </c>
       <c r="M13" t="n">
-        <v>193.6648311991495</v>
+        <v>193.6648311991494</v>
       </c>
       <c r="N13" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
-        <v>174.6274311595649</v>
+        <v>174.6274311595648</v>
       </c>
       <c r="P13" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R13" t="n">
-        <v>55.55102100046356</v>
+        <v>55.55102100046354</v>
       </c>
       <c r="S13" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622295</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879534</v>
+        <v>0.06738902668879533</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,22 +31999,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K14" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L14" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M14" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N14" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q14" t="n">
         <v>297.4289193341494</v>
@@ -32023,13 +32023,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T14" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H15" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I15" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J15" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K15" t="n">
         <v>237.9634741064212</v>
@@ -32084,7 +32084,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N15" t="n">
         <v>383.2739237590426</v>
@@ -32093,22 +32093,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P15" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q15" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S15" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H16" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
@@ -32175,16 +32175,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R16" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S16" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U16" t="n">
         <v>0.06738902668879533</v>
@@ -32236,22 +32236,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K17" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L17" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M17" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N17" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O17" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q17" t="n">
         <v>297.4289193341494</v>
@@ -32260,13 +32260,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T17" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H18" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I18" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K18" t="n">
         <v>237.9634741064212</v>
@@ -32321,7 +32321,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N18" t="n">
         <v>383.2739237590426</v>
@@ -32330,22 +32330,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P18" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q18" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S18" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H19" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
@@ -32412,16 +32412,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R19" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S19" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U19" t="n">
         <v>0.06738902668879533</v>
@@ -32473,22 +32473,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K20" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L20" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M20" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N20" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O20" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q20" t="n">
         <v>297.4289193341494</v>
@@ -32497,13 +32497,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T20" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H21" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I21" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K21" t="n">
         <v>237.9634741064212</v>
@@ -32558,7 +32558,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N21" t="n">
         <v>383.2739237590426</v>
@@ -32567,22 +32567,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P21" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q21" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S21" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H22" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
@@ -32649,16 +32649,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R22" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S22" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U22" t="n">
         <v>0.06738902668879533</v>
@@ -32710,22 +32710,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K23" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L23" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M23" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N23" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O23" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q23" t="n">
         <v>297.4289193341494</v>
@@ -32734,13 +32734,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T23" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H24" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I24" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J24" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K24" t="n">
         <v>237.9634741064212</v>
@@ -32795,7 +32795,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N24" t="n">
         <v>383.2739237590426</v>
@@ -32804,22 +32804,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P24" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q24" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S24" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H25" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
@@ -32886,16 +32886,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R25" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S25" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U25" t="n">
         <v>0.06738902668879533</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.754258377230492</v>
+        <v>2.754258377230491</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20704860581178</v>
+        <v>28.20704860581177</v>
       </c>
       <c r="I26" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J26" t="n">
-        <v>233.7642369444667</v>
+        <v>233.7642369444666</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L26" t="n">
-        <v>434.6426288648012</v>
+        <v>434.6426288648011</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951801</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565944</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q26" t="n">
         <v>297.4289193341494</v>
@@ -32971,13 +32971,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113989</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H27" t="n">
-        <v>14.23243528756661</v>
+        <v>14.2324352875666</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649312</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9634741064213</v>
+        <v>237.9634741064212</v>
       </c>
       <c r="L27" t="n">
-        <v>319.9712574527633</v>
+        <v>319.9712574527632</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N27" t="n">
-        <v>383.2739237590427</v>
+        <v>383.2739237590426</v>
       </c>
       <c r="O27" t="n">
-        <v>350.6207616006474</v>
+        <v>350.6207616006473</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.1111701223154</v>
+        <v>188.1111701223153</v>
       </c>
       <c r="R27" t="n">
-        <v>91.4960735380531</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225115</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699325</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H28" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442247</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J28" t="n">
-        <v>87.3474100931268</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L28" t="n">
-        <v>183.6800237447597</v>
+        <v>183.6800237447596</v>
       </c>
       <c r="M28" t="n">
-        <v>193.6648311991495</v>
+        <v>193.6648311991494</v>
       </c>
       <c r="N28" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O28" t="n">
-        <v>174.6274311595649</v>
+        <v>174.6274311595648</v>
       </c>
       <c r="P28" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R28" t="n">
-        <v>55.55102100046356</v>
+        <v>55.55102100046354</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622295</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879534</v>
+        <v>0.06738902668879533</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,31 +33172,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H29" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I29" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J29" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K29" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L29" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M29" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N29" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O29" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P29" t="n">
         <v>396.0657974687165</v>
@@ -33208,7 +33208,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T29" t="n">
         <v>12.05676604632648</v>
@@ -33254,46 +33254,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H30" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I30" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J30" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K30" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L30" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M30" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N30" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O30" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P30" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q30" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S30" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,25 +33336,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I31" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L31" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M31" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N31" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O31" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P31" t="n">
         <v>149.4239351779553</v>
@@ -33363,16 +33363,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R31" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S31" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,22 +33421,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K32" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L32" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M32" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N32" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O32" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q32" t="n">
         <v>297.4289193341494</v>
@@ -33445,13 +33445,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T32" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H33" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I33" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J33" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K33" t="n">
         <v>237.9634741064212</v>
@@ -33506,7 +33506,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N33" t="n">
         <v>383.2739237590426</v>
@@ -33515,22 +33515,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P33" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q33" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S33" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H34" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
@@ -33597,16 +33597,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R34" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S34" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U34" t="n">
         <v>0.06738902668879533</v>
@@ -33658,22 +33658,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K35" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L35" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M35" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N35" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O35" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q35" t="n">
         <v>297.4289193341494</v>
@@ -33682,13 +33682,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T35" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H36" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I36" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J36" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K36" t="n">
         <v>237.9634741064212</v>
@@ -33743,7 +33743,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N36" t="n">
         <v>383.2739237590426</v>
@@ -33752,22 +33752,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P36" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q36" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S36" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H37" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
@@ -33834,16 +33834,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R37" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S37" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U37" t="n">
         <v>0.06738902668879533</v>
@@ -33895,22 +33895,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K38" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L38" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M38" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N38" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O38" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q38" t="n">
         <v>297.4289193341494</v>
@@ -33919,13 +33919,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T38" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H39" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K39" t="n">
         <v>237.9634741064212</v>
@@ -33980,7 +33980,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N39" t="n">
         <v>383.2739237590426</v>
@@ -33989,22 +33989,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P39" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q39" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S39" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H40" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
@@ -34071,16 +34071,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R40" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S40" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U40" t="n">
         <v>0.06738902668879533</v>
@@ -34132,22 +34132,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K41" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L41" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M41" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N41" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q41" t="n">
         <v>297.4289193341494</v>
@@ -34156,13 +34156,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T41" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H42" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K42" t="n">
         <v>237.9634741064212</v>
@@ -34217,7 +34217,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N42" t="n">
         <v>383.2739237590426</v>
@@ -34226,22 +34226,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P42" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q42" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S42" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H43" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
@@ -34308,16 +34308,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R43" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S43" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U43" t="n">
         <v>0.06738902668879533</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.754258377230491</v>
+        <v>2.75425837723049</v>
       </c>
       <c r="H44" t="n">
         <v>28.20704860581177</v>
@@ -34366,40 +34366,40 @@
         <v>106.1835460881786</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444665</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526332</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648009</v>
       </c>
       <c r="M44" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N44" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951798</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565941</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.4289193341494</v>
+        <v>297.4289193341493</v>
       </c>
       <c r="R44" t="n">
-        <v>173.012182788705</v>
+        <v>173.0121827887049</v>
       </c>
       <c r="S44" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113986</v>
       </c>
       <c r="T44" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H45" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649309</v>
       </c>
       <c r="J45" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K45" t="n">
         <v>237.9634741064212</v>
       </c>
       <c r="L45" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527631</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N45" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590425</v>
       </c>
       <c r="O45" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006472</v>
       </c>
       <c r="P45" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568912</v>
       </c>
       <c r="Q45" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805304</v>
       </c>
       <c r="S45" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699319</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,25 +34515,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.23546548929458</v>
+        <v>1.235465489294579</v>
       </c>
       <c r="H46" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312675</v>
       </c>
       <c r="K46" t="n">
-        <v>143.5386268471339</v>
+        <v>143.5386268471338</v>
       </c>
       <c r="L46" t="n">
         <v>183.6800237447596</v>
       </c>
       <c r="M46" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991493</v>
       </c>
       <c r="N46" t="n">
         <v>189.0599143754152</v>
@@ -34545,19 +34545,19 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R46" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046353</v>
       </c>
       <c r="S46" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879532</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.71833241778037</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K11" t="n">
-        <v>130.2621430076529</v>
+        <v>325.2084090574439</v>
       </c>
       <c r="L11" t="n">
-        <v>198.8762138948139</v>
+        <v>198.8762138948138</v>
       </c>
       <c r="M11" t="n">
-        <v>253.2774380536012</v>
+        <v>253.277438053601</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9221326107923</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349076</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4202733404286</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.12322945969996</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.14306484755528</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211271</v>
+        <v>125.6228894509517</v>
       </c>
       <c r="K12" t="n">
-        <v>364.5872721446409</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L12" t="n">
-        <v>448.4202733404286</v>
+        <v>181.416877672889</v>
       </c>
       <c r="M12" t="n">
-        <v>231.2573314561481</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757094</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O12" t="n">
-        <v>208.0245171562029</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P12" t="n">
-        <v>210.8213492981407</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.12939603629385</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.41179195954835</v>
+        <v>71.41179195954834</v>
       </c>
       <c r="K13" t="n">
         <v>198.6926970043453</v>
@@ -35574,19 +35574,19 @@
         <v>288.6936109881701</v>
       </c>
       <c r="M13" t="n">
-        <v>310.6722701440844</v>
+        <v>310.6722701440843</v>
       </c>
       <c r="N13" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O13" t="n">
-        <v>276.6361210566989</v>
+        <v>276.6361210566988</v>
       </c>
       <c r="P13" t="n">
         <v>224.1260564259431</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314883</v>
+        <v>94.7149062031488</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.71833241778032</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K14" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L14" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M14" t="n">
-        <v>652.1659613023895</v>
+        <v>341.8946924477066</v>
       </c>
       <c r="N14" t="n">
-        <v>275.9102880150696</v>
+        <v>262.036144298589</v>
       </c>
       <c r="O14" t="n">
-        <v>614.7635209976529</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P14" t="n">
         <v>164.8328017134469</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L15" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N15" t="n">
-        <v>652.1659613023895</v>
+        <v>261.1605962121505</v>
       </c>
       <c r="O15" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P15" t="n">
-        <v>334.0358860678871</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.12939603629383</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954834</v>
+        <v>71.41179195954827</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
       </c>
       <c r="L16" t="n">
-        <v>288.6936109881701</v>
+        <v>288.69361098817</v>
       </c>
       <c r="M16" t="n">
-        <v>310.6722701440843</v>
+        <v>310.6722701440842</v>
       </c>
       <c r="N16" t="n">
         <v>310.6156487377381</v>
       </c>
       <c r="O16" t="n">
-        <v>276.6361210566989</v>
+        <v>276.6361210566988</v>
       </c>
       <c r="P16" t="n">
-        <v>224.1260564259431</v>
+        <v>224.126056425943</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314881</v>
+        <v>94.71490620314873</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>454.4075555788176</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L17" t="n">
-        <v>198.8762138948139</v>
+        <v>198.8762138948138</v>
       </c>
       <c r="M17" t="n">
-        <v>253.2774380536011</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0361442985891</v>
+        <v>262.036144298589</v>
       </c>
       <c r="O17" t="n">
-        <v>394.6886110911919</v>
+        <v>555.4035559210284</v>
       </c>
       <c r="P17" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q17" t="n">
-        <v>287.4382201196046</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755531</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>364.5872721446408</v>
       </c>
       <c r="L18" t="n">
-        <v>371.3291456219575</v>
+        <v>371.3291456219583</v>
       </c>
       <c r="M18" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N18" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O18" t="n">
-        <v>208.0245171562029</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P18" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.12939603629383</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2700490050758</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M19" t="n">
         <v>233.24870816099</v>
@@ -36057,10 +36057,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P19" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005448</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.71833241778032</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K20" t="n">
-        <v>454.4075555788176</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L20" t="n">
-        <v>616.5374284452644</v>
+        <v>198.8762138948138</v>
       </c>
       <c r="M20" t="n">
-        <v>253.2774380536011</v>
+        <v>253.277438053601</v>
       </c>
       <c r="N20" t="n">
-        <v>262.0361442985891</v>
+        <v>422.7614156548743</v>
       </c>
       <c r="O20" t="n">
-        <v>233.9633397349076</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P20" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.5988920975117</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R20" t="n">
-        <v>23.14306484755531</v>
+        <v>23.14306484755528</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>344.4222523578603</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L21" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N21" t="n">
-        <v>652.1659613023895</v>
+        <v>525.625833224729</v>
       </c>
       <c r="O21" t="n">
-        <v>208.0245171562029</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P21" t="n">
         <v>147.4296650425611</v>
@@ -36282,7 +36282,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2700490050758</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M22" t="n">
         <v>233.24870816099</v>
@@ -36294,10 +36294,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P22" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005448</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K23" t="n">
-        <v>454.4075555788176</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L23" t="n">
-        <v>214.2593594958109</v>
+        <v>408.766945760786</v>
       </c>
       <c r="M23" t="n">
-        <v>253.2774380536011</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0361442985891</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O23" t="n">
-        <v>614.7635209976529</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P23" t="n">
-        <v>486.6315098849296</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>138.4817867525215</v>
+        <v>12.39075141211265</v>
       </c>
       <c r="K24" t="n">
-        <v>210.7055053597609</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L24" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>231.2573314561481</v>
+        <v>597.3289192884088</v>
       </c>
       <c r="N24" t="n">
-        <v>652.1659613023892</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O24" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P24" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q24" t="n">
-        <v>48.12939603629383</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2700490050758</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M25" t="n">
         <v>233.24870816099</v>
@@ -36531,10 +36531,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P25" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005448</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M26" t="n">
-        <v>576.7718181743871</v>
+        <v>702.7909715464335</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105733</v>
+        <v>699.3830687105732</v>
       </c>
       <c r="O26" t="n">
-        <v>614.763520997653</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q26" t="n">
-        <v>287.4382201196046</v>
+        <v>194.9307705915852</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>23.14306484755528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320623</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L27" t="n">
-        <v>265.2692998472377</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>231.2573314561481</v>
+        <v>696.9623952061479</v>
       </c>
       <c r="N27" t="n">
-        <v>731.2745860192629</v>
+        <v>297.0443677800909</v>
       </c>
       <c r="O27" t="n">
-        <v>601.8868364329325</v>
+        <v>601.8868364329323</v>
       </c>
       <c r="P27" t="n">
-        <v>465.8924336824983</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q27" t="n">
-        <v>48.12939603629385</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211113</v>
       </c>
       <c r="K28" t="n">
-        <v>201.2487931569082</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L28" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
-        <v>313.2283662966472</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N28" t="n">
         <v>313.1717448903009</v>
       </c>
       <c r="O28" t="n">
-        <v>279.1922172092617</v>
+        <v>279.1922172092616</v>
       </c>
       <c r="P28" t="n">
         <v>226.6821525785059</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571159</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.65272937025318</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K29" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L29" t="n">
         <v>616.5374284452644</v>
@@ -36841,10 +36841,10 @@
         <v>702.7909715464336</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105733</v>
+        <v>395.1720530918807</v>
       </c>
       <c r="O29" t="n">
-        <v>614.7635209976529</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
         <v>486.6315098849296</v>
@@ -36853,7 +36853,7 @@
         <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
-        <v>23.14306484755531</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K30" t="n">
-        <v>364.5872721446408</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L30" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>469.0226125393028</v>
+        <v>656.5944962437042</v>
       </c>
       <c r="N30" t="n">
-        <v>251.9322116757093</v>
+        <v>731.2745860192629</v>
       </c>
       <c r="O30" t="n">
         <v>208.0245171562029</v>
       </c>
       <c r="P30" t="n">
-        <v>465.8924336824983</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.2066837721429</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211114</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K31" t="n">
-        <v>201.2487931569081</v>
+        <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
-        <v>313.2283662966471</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
         <v>313.1717448903009</v>
@@ -37008,7 +37008,7 @@
         <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571162</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.65272937025183</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7909715464336</v>
+        <v>253.277438053601</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3830687105733</v>
+        <v>699.3830687105732</v>
       </c>
       <c r="O32" t="n">
-        <v>614.7635209976529</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.4382201196046</v>
+        <v>263.6441228216716</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755531</v>
+        <v>23.14306484755528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>138.4817867525215</v>
+        <v>12.39075141211265</v>
       </c>
       <c r="K33" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L33" t="n">
-        <v>552.2572229763482</v>
+        <v>181.416877672889</v>
       </c>
       <c r="M33" t="n">
-        <v>231.2573314561481</v>
+        <v>696.9623952061479</v>
       </c>
       <c r="N33" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O33" t="n">
-        <v>584.1639999115274</v>
+        <v>561.0023675286662</v>
       </c>
       <c r="P33" t="n">
-        <v>465.8924336824983</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.2066837721429</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211114</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K34" t="n">
-        <v>201.2487931569081</v>
+        <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
         <v>291.2497071407329</v>
@@ -37306,22 +37306,22 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
-        <v>454.4075555788176</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M35" t="n">
-        <v>253.2774380536011</v>
+        <v>698.6785411743382</v>
       </c>
       <c r="N35" t="n">
-        <v>648.4357743280633</v>
+        <v>262.036144298589</v>
       </c>
       <c r="O35" t="n">
-        <v>614.7635209976529</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P35" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q35" t="n">
         <v>287.4382201196046</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K36" t="n">
-        <v>100.1220351320623</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L36" t="n">
         <v>181.416877672889</v>
@@ -37397,13 +37397,13 @@
         <v>731.2745860192629</v>
       </c>
       <c r="O36" t="n">
-        <v>454.5107111017796</v>
+        <v>538.49696349722</v>
       </c>
       <c r="P36" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q36" t="n">
-        <v>258.2066837721429</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.28057345868133</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>121.269135021251</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L37" t="n">
-        <v>245.6213256820228</v>
+        <v>315.5623924873031</v>
       </c>
       <c r="M37" t="n">
         <v>233.24870816099</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546438</v>
+        <v>261.5315934080448</v>
       </c>
       <c r="O37" t="n">
         <v>199.2125590736045</v>
       </c>
       <c r="P37" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.29134422005448</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K38" t="n">
-        <v>454.4075555788176</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L38" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M38" t="n">
-        <v>253.2774380536011</v>
+        <v>261.9430413315871</v>
       </c>
       <c r="N38" t="n">
-        <v>699.3830687105733</v>
+        <v>699.3830687105732</v>
       </c>
       <c r="O38" t="n">
-        <v>614.7635209976529</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P38" t="n">
-        <v>326.2004979908415</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q38" t="n">
         <v>75.1232294596999</v>
@@ -37625,22 +37625,22 @@
         <v>364.5872721446408</v>
       </c>
       <c r="L39" t="n">
-        <v>552.2572229763482</v>
+        <v>247.4240870013277</v>
       </c>
       <c r="M39" t="n">
         <v>696.9623952061479</v>
       </c>
       <c r="N39" t="n">
-        <v>251.9322116757093</v>
+        <v>731.2745860192629</v>
       </c>
       <c r="O39" t="n">
-        <v>382.5337555247349</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P39" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.12939603629383</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.28057345868133</v>
+        <v>28.33950665340178</v>
       </c>
       <c r="K40" t="n">
         <v>121.269135021251</v>
       </c>
       <c r="L40" t="n">
-        <v>211.2700490050758</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M40" t="n">
-        <v>267.599984837937</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N40" t="n">
-        <v>233.1920867546438</v>
+        <v>337.484430236871</v>
       </c>
       <c r="O40" t="n">
         <v>199.2125590736045</v>
       </c>
       <c r="P40" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q40" t="n">
-        <v>121.5836877022818</v>
+        <v>121.5836877022817</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K41" t="n">
-        <v>454.4075555788176</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L41" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M41" t="n">
-        <v>253.2774380536011</v>
+        <v>702.7909715464335</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105733</v>
+        <v>262.036144298589</v>
       </c>
       <c r="O41" t="n">
-        <v>242.0175184436602</v>
+        <v>442.165900022717</v>
       </c>
       <c r="P41" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q41" t="n">
-        <v>287.4382201196046</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
-        <v>100.1220351320623</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L42" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>231.2573314561481</v>
+        <v>696.9623952061479</v>
       </c>
       <c r="N42" t="n">
-        <v>731.2745860192629</v>
+        <v>690.9066870568208</v>
       </c>
       <c r="O42" t="n">
-        <v>601.753006211842</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P42" t="n">
-        <v>465.8924336824983</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q42" t="n">
-        <v>258.2066837721429</v>
+        <v>48.1293960362938</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>225.5614785034783</v>
       </c>
       <c r="L43" t="n">
-        <v>239.6095556584773</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M43" t="n">
         <v>233.24870816099</v>
       </c>
       <c r="N43" t="n">
-        <v>233.1920867546438</v>
+        <v>337.484430236871</v>
       </c>
       <c r="O43" t="n">
-        <v>303.5049025558318</v>
+        <v>199.2125590736045</v>
       </c>
       <c r="P43" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29134422005448</v>
+        <v>45.63085087345647</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.71833241778032</v>
+        <v>221.814947589854</v>
       </c>
       <c r="K44" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788174</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452641</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464336</v>
+        <v>473.6466074222593</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3830687105733</v>
+        <v>699.3830687105731</v>
       </c>
       <c r="O44" t="n">
-        <v>262.6029478465106</v>
+        <v>233.9633397349074</v>
       </c>
       <c r="P44" t="n">
-        <v>486.6315098849296</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q44" t="n">
-        <v>287.4382201196046</v>
+        <v>75.12322945969984</v>
       </c>
       <c r="R44" t="n">
-        <v>23.14306484755531</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
-        <v>364.5872721446408</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L45" t="n">
-        <v>247.4240870013271</v>
+        <v>552.2572229763481</v>
       </c>
       <c r="M45" t="n">
         <v>696.9623952061479</v>
       </c>
       <c r="N45" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757092</v>
       </c>
       <c r="O45" t="n">
-        <v>208.0245171562029</v>
+        <v>601.8868364329323</v>
       </c>
       <c r="P45" t="n">
-        <v>147.4296650425611</v>
+        <v>192.5418211469435</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.12939603629383</v>
+        <v>48.12939603629377</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>98.2805734586813</v>
       </c>
       <c r="K46" t="n">
-        <v>121.269135021251</v>
+        <v>155.6204116981987</v>
       </c>
       <c r="L46" t="n">
-        <v>315.5623924873031</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M46" t="n">
-        <v>261.5882148143909</v>
+        <v>233.2487081609899</v>
       </c>
       <c r="N46" t="n">
-        <v>337.4844302368712</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O46" t="n">
         <v>199.2125590736045</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428488</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.29134422005448</v>
+        <v>121.5836877022818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
